--- a/src/reports/CompletedRequestsReport.xlsx
+++ b/src/reports/CompletedRequestsReport.xlsx
@@ -40,16 +40,16 @@
     <t>ID мастера</t>
   </si>
   <si>
-    <t>Стиральная машина1</t>
-  </si>
-  <si>
-    <t>A505</t>
-  </si>
-  <si>
-    <t>Сломался</t>
-  </si>
-  <si>
-    <t>Отложено</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>Выполнено</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>45577.67858746528</v>
+        <v>45582.688781516204</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -487,10 +487,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
